--- a/0. Palindromos/P-MTDeterminista1C.xlsx
+++ b/0. Palindromos/P-MTDeterminista1C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\0. Palindromos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471394D-7BD0-42A6-BE51-38A9E7D9A624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CE742-CE17-494B-AE94-3B32B5263A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="J11:N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,70 +1709,70 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>14</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>16</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>18</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>20</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>22</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>24</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>26</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>28</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>30</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>32</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>34</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>36</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>38</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>40</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>42</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>44</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>46</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>48</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -2124,6 +2124,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/0. Palindromos/P-MTDeterminista1C.xlsx
+++ b/0. Palindromos/P-MTDeterminista1C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\0. Palindromos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CE742-CE17-494B-AE94-3B32B5263A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D727532-6CFA-4783-BC7E-1094CA050665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
@@ -103,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,10 +264,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$L$4</c:f>
+              <c:f>Hoja1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -285,15 +288,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,10 +333,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$5:$L$5</c:f>
+              <c:f>Hoja1!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
@@ -360,15 +354,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,10 +399,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$L$6</c:f>
+              <c:f>Hoja1!$C$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
@@ -431,15 +416,6 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -486,10 +462,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$7:$L$7</c:f>
+              <c:f>Hoja1!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -500,15 +476,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1606,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,60 +1607,24 @@
       <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1">
-        <v>12</v>
-      </c>
-      <c r="O2" s="1">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>15</v>
-      </c>
-      <c r="R2" s="1">
-        <v>16</v>
-      </c>
-      <c r="S2" s="1">
-        <v>17</v>
-      </c>
-      <c r="T2" s="1">
-        <v>18</v>
-      </c>
-      <c r="U2" s="1">
-        <v>19</v>
-      </c>
-      <c r="V2" s="1">
-        <v>20</v>
-      </c>
-      <c r="W2" s="1">
-        <v>21</v>
-      </c>
-      <c r="X2" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>25</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1720,60 +1651,24 @@
       <c r="I3" s="1">
         <v>12</v>
       </c>
-      <c r="J3" s="1">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1">
-        <v>32</v>
-      </c>
-      <c r="T3" s="1">
-        <v>34</v>
-      </c>
-      <c r="U3" s="1">
-        <v>36</v>
-      </c>
-      <c r="V3" s="1">
-        <v>38</v>
-      </c>
-      <c r="W3" s="1">
-        <v>40</v>
-      </c>
-      <c r="X3" s="1">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>48</v>
-      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1800,30 +1695,24 @@
       <c r="I4" s="1">
         <v>91</v>
       </c>
-      <c r="J4" s="1">
-        <v>120</v>
-      </c>
-      <c r="K4" s="1">
-        <v>153</v>
-      </c>
-      <c r="L4" s="1">
-        <v>190</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1854,78 +1743,24 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" ref="M5:M7" si="1">M4-L4</f>
-        <v>-190</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" ref="N5:N7" si="2">N4-M4</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" ref="O5:O7" si="3">O4-N4</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" ref="P5:P7" si="4">P4-O4</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" ref="Q5:S7" si="5">Q4-P4</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" ref="T5:T7" si="6">T4-S4</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5:U7" si="7">U4-T4</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" ref="V5:V7" si="8">V4-U4</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" ref="W5:W7" si="9">W4-V4</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <f t="shared" ref="X5:Z7" si="10">X4-W4</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA7" si="11">AA4-Z4</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1953,78 +1788,24 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <f>M5-L5</f>
-        <v>-227</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -2049,78 +1830,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>-231</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
-        <v>417</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>-190</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
